--- a/Audio/Russman/cues.xlsx
+++ b/Audio/Russman/cues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fifem\Documents\drg-mods\Audio\Russman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF9ABA9-7505-454E-BF0C-B79B3A1440FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6532C791-F60B-4695-B5B2-D78B14D2786C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="7428" xr2:uid="{F8A3E8D9-1FAC-42EC-8E85-BA0F2CBBD7A8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Description</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Shout_EnvironmentSnowStorm</t>
   </si>
   <si>
-    <t>got a bad feeling about this storm</t>
-  </si>
-  <si>
     <t>out of money</t>
   </si>
   <si>
@@ -118,6 +115,114 @@
   </si>
   <si>
     <t>get it off</t>
+  </si>
+  <si>
+    <t>Russman Track #</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>01, 03, 07, 08, 09</t>
+  </si>
+  <si>
+    <t>46, 47</t>
+  </si>
+  <si>
+    <t>77, 78</t>
+  </si>
+  <si>
+    <t>Shouts/Mission_Escort/</t>
+  </si>
+  <si>
+    <t>Shout_ProtectDrilldozer_WhenTakingDamage</t>
+  </si>
+  <si>
+    <t>Shout_AfterDrilldozerStarted_Firsttime</t>
+  </si>
+  <si>
+    <t>89, 90, 98, 99</t>
+  </si>
+  <si>
+    <t>132, 135</t>
+  </si>
+  <si>
+    <t>137, 138, 139</t>
+  </si>
+  <si>
+    <t>Shout_PickAxePowerAttack</t>
+  </si>
+  <si>
+    <t>241, 242, 243, 244, 245, 246, 247, 248</t>
+  </si>
+  <si>
+    <t>grenade kill</t>
+  </si>
+  <si>
+    <t>251, 253</t>
+  </si>
+  <si>
+    <t>277, 289, 290, 291, 293</t>
+  </si>
+  <si>
+    <t>getting fuel</t>
+  </si>
+  <si>
+    <t>Shout_CanisterFull</t>
+  </si>
+  <si>
+    <t>wave incoming</t>
+  </si>
+  <si>
+    <t>tunnels…</t>
+  </si>
+  <si>
+    <t>leaving mission</t>
+  </si>
+  <si>
+    <t>Shout_Environment_HeavyRainFall</t>
+  </si>
+  <si>
+    <t>smell</t>
+  </si>
+  <si>
+    <t>345, 349, 354</t>
+  </si>
+  <si>
+    <t>mission fail</t>
+  </si>
+  <si>
+    <t>359, 360, 361, 362</t>
+  </si>
+  <si>
+    <t>149, 150, 151, 152, 369</t>
+  </si>
+  <si>
+    <t>24, 207, 209, 210, 211, 370, 372</t>
+  </si>
+  <si>
+    <t>333, 374, 377, 379, 380</t>
+  </si>
+  <si>
+    <t>Shout_Minerals_Buy</t>
+  </si>
+  <si>
+    <t>Shout_Minerals_GoodDeal</t>
+  </si>
+  <si>
+    <t>Shout_Minerals_Sell</t>
+  </si>
+  <si>
+    <t>Shout_FlyingGrabber</t>
+  </si>
+  <si>
+    <t>Shout_LightUp</t>
+  </si>
+  <si>
+    <t>Shouts/LaserPointer/</t>
+  </si>
+  <si>
+    <t>Shout_LaserPoint_Generic</t>
   </si>
 </sst>
 </file>
@@ -161,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -174,6 +279,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,196 +599,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6AF122-86AA-492E-835B-7E2AA6F17D7A}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.34166666666666662</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6">
+        <v>280</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.12638888888888888</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.58750000000000002</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="6">
+        <v>320</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="6">
+        <v>351</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6">
+        <v>13</v>
+      </c>
+      <c r="C30" s="9">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6">
+        <v>13</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B32" s="6">
+        <v>129</v>
+      </c>
+      <c r="C32" s="2">
         <v>0.33819444444444446</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3.8194444444444441E-2</v>
-      </c>
-      <c r="C20" s="4" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="D41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.33888888888888885</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
-        <v>0.81597222222222221</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
+      <c r="D42" t="s">
         <v>29</v>
       </c>
-      <c r="C27" t="s">
-        <v>30</v>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="6">
+        <v>340</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="6">
+        <v>352</v>
+      </c>
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="6">
+        <v>358</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-  </mergeCells>
+  <sortState ref="A29:D36">
+    <sortCondition ref="A29:A36"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Audio/Russman/cues.xlsx
+++ b/Audio/Russman/cues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fifem\Documents\drg-mods\Audio\Russman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6532C791-F60B-4695-B5B2-D78B14D2786C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6938880-16A7-4D99-B7EB-D266BA214F4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="7428" xr2:uid="{F8A3E8D9-1FAC-42EC-8E85-BA0F2CBBD7A8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Description</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Shout_Grenade_Warning_Lure</t>
   </si>
   <si>
-    <t>Monkey bomb</t>
-  </si>
-  <si>
     <t>Shout_EnvironmentSandstorm</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>Shout_AfterDrilldozerStarted_Firsttime</t>
   </si>
   <si>
-    <t>89, 90, 98, 99</t>
-  </si>
-  <si>
     <t>132, 135</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t>Shout_PickAxePowerAttack</t>
   </si>
   <si>
-    <t>241, 242, 243, 244, 245, 246, 247, 248</t>
-  </si>
-  <si>
     <t>grenade kill</t>
   </si>
   <si>
@@ -223,6 +214,33 @@
   </si>
   <si>
     <t>Shout_LaserPoint_Generic</t>
+  </si>
+  <si>
+    <t>15, 280</t>
+  </si>
+  <si>
+    <t>39, 241, 242, 243, 244, 245, 246, 247, 248</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>ought to be able to do something with this</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>can't keep hauling this around</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>89, 90, 97, 98, 99, 100</t>
   </si>
 </sst>
 </file>
@@ -599,11 +617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6AF122-86AA-492E-835B-7E2AA6F17D7A}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B17:B18"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -634,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>0.34166666666666662</v>
@@ -645,12 +663,15 @@
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -663,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -671,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2">
         <v>0.42708333333333331</v>
@@ -679,10 +700,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -696,19 +717,16 @@
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6">
-        <v>280</v>
+      <c r="B11" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C11" s="2">
         <v>0.58750000000000002</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -717,7 +735,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2">
         <v>1.3888888888888888E-2</v>
@@ -728,7 +746,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -736,7 +754,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2">
         <v>0.12638888888888888</v>
@@ -750,12 +768,15 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="2"/>
@@ -771,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>0.20833333333333334</v>
@@ -785,13 +806,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="6">
         <v>112</v>
@@ -799,21 +820,21 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" s="6">
         <v>320</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -824,7 +845,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B29" s="6">
         <v>351</v>
@@ -834,7 +855,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="6">
         <v>13</v>
@@ -846,7 +867,7 @@
     </row>
     <row r="31" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="6">
         <v>13</v>
@@ -870,21 +891,21 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
@@ -905,7 +926,7 @@
         <v>21</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2">
         <v>0.33888888888888885</v>
@@ -916,37 +937,37 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C41" s="2">
         <v>0.81597222222222221</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
         <v>28</v>
-      </c>
-      <c r="D42" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -954,15 +975,15 @@
         <v>340</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -970,7 +991,7 @@
         <v>352</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -978,7 +999,23 @@
         <v>358</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Audio/Russman/cues.xlsx
+++ b/Audio/Russman/cues.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fifem\Documents\drg-mods\Audio\Russman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6938880-16A7-4D99-B7EB-D266BA214F4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10887A4E-AF08-4FF1-92AA-A2149214679E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="7428" xr2:uid="{F8A3E8D9-1FAC-42EC-8E85-BA0F2CBBD7A8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="72">
   <si>
     <t>Description</t>
   </si>
@@ -284,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -303,6 +303,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,8 +621,8 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,7 +732,7 @@
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">

--- a/Audio/Russman/cues.xlsx
+++ b/Audio/Russman/cues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fifem\Documents\drg-mods\Audio\Russman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10887A4E-AF08-4FF1-92AA-A2149214679E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA865F38-0D68-4793-B1BD-E9205150D317}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="7428" xr2:uid="{F8A3E8D9-1FAC-42EC-8E85-BA0F2CBBD7A8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Description</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Shouts/</t>
   </si>
   <si>
-    <t>Russman Timestamp</t>
-  </si>
-  <si>
     <t>Shout_Coughing</t>
   </si>
   <si>
@@ -108,15 +105,9 @@
     <t>out of money</t>
   </si>
   <si>
-    <t>26:54</t>
-  </si>
-  <si>
     <t>get it off</t>
   </si>
   <si>
-    <t>Russman Track #</t>
-  </si>
-  <si>
     <t>04</t>
   </si>
   <si>
@@ -241,6 +232,12 @@
   </si>
   <si>
     <t>89, 90, 97, 98, 99, 100</t>
+  </si>
+  <si>
+    <t>Needs Implementation</t>
+  </si>
+  <si>
+    <t>Tracks Implemented</t>
   </si>
 </sst>
 </file>
@@ -264,12 +261,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -284,31 +287,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -622,14 +626,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
   </cols>
@@ -638,11 +642,11 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -650,379 +654,341 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.34166666666666662</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.42708333333333331</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.58750000000000002</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.3888888888888888E-2</v>
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.12638888888888888</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="6">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3">
         <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="6">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3">
         <v>320</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="6">
+        <v>45</v>
+      </c>
+      <c r="C29" s="3">
         <v>351</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="6">
+        <v>23</v>
+      </c>
+      <c r="C30" s="3">
         <v>13</v>
       </c>
-      <c r="C30" s="9">
-        <v>3.8194444444444441E-2</v>
-      </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="6">
+        <v>24</v>
+      </c>
+      <c r="C31" s="3">
         <v>13</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="3">
+        <v>129</v>
+      </c>
+      <c r="D32" t="s">
         <v>17</v>
-      </c>
-      <c r="B32" s="6">
-        <v>129</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.33819444444444446</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="6" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="2">
-        <v>0.33888888888888885</v>
-      </c>
-      <c r="D39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="6" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="2">
-        <v>0.81597222222222221</v>
-      </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="6">
+      <c r="C45" s="3">
         <v>340</v>
       </c>
       <c r="D45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="3">
+        <v>352</v>
+      </c>
+      <c r="D47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="6">
-        <v>352</v>
-      </c>
-      <c r="D47" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="6">
+      <c r="C48" s="3">
         <v>358</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
         <v>66</v>
-      </c>
-      <c r="D49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A29:D36">
     <sortCondition ref="A29:A36"/>
   </sortState>
+  <conditionalFormatting sqref="B2:B39">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/Audio/Russman/cues.xlsx
+++ b/Audio/Russman/cues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fifem\Documents\drg-mods\Audio\Russman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA865F38-0D68-4793-B1BD-E9205150D317}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3642C503-75F7-4DD7-8FB1-23B4DB1D3662}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="7428" xr2:uid="{F8A3E8D9-1FAC-42EC-8E85-BA0F2CBBD7A8}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,7 +737,7 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Audio/Russman/cues.xlsx
+++ b/Audio/Russman/cues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fifem\Documents\drg-mods\Audio\Russman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3642C503-75F7-4DD7-8FB1-23B4DB1D3662}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E705CAB-D301-42B2-A46A-DF57294CD0EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="7428" xr2:uid="{F8A3E8D9-1FAC-42EC-8E85-BA0F2CBBD7A8}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,7 +745,7 @@
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D15" t="s">

--- a/Audio/Russman/cues.xlsx
+++ b/Audio/Russman/cues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fifem\Documents\drg-mods\Audio\Russman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E705CAB-D301-42B2-A46A-DF57294CD0EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3248351B-3EE6-4A87-B355-AD466326E2A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="7428" xr2:uid="{F8A3E8D9-1FAC-42EC-8E85-BA0F2CBBD7A8}"/>
   </bookViews>
@@ -261,18 +261,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -299,20 +293,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -626,7 +612,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,7 +715,7 @@
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -737,7 +723,7 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -745,7 +731,7 @@
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D15" t="s">
@@ -984,11 +970,6 @@
   <sortState ref="A29:D36">
     <sortCondition ref="A29:A36"/>
   </sortState>
-  <conditionalFormatting sqref="B2:B39">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/Audio/Russman/cues.xlsx
+++ b/Audio/Russman/cues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fifem\Documents\drg-mods\Audio\Russman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3248351B-3EE6-4A87-B355-AD466326E2A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F5764A-9D6E-4E1D-BBF4-42500B8E96DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="7428" xr2:uid="{F8A3E8D9-1FAC-42EC-8E85-BA0F2CBBD7A8}"/>
   </bookViews>
@@ -612,7 +612,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,7 +715,7 @@
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -723,7 +723,7 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Audio/Russman/cues.xlsx
+++ b/Audio/Russman/cues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fifem\Documents\drg-mods\Audio\Russman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CECF81-4DAB-433B-9041-E3E0237DA6E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A17D57-1041-49F3-BA29-6258BA240999}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="7428" xr2:uid="{F8A3E8D9-1FAC-42EC-8E85-BA0F2CBBD7A8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
   <si>
     <t>out of money</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Outbreak_FoamGun_Take</t>
+  </si>
+  <si>
+    <t>DO NOT USE</t>
+  </si>
+  <si>
+    <t>Spacerig_WakeUp_Cabin</t>
   </si>
 </sst>
 </file>
@@ -254,13 +260,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D8C07B0E-445E-466A-BF84-C042A97AC876}" name="Table2" displayName="Table2" ref="A1:D552" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
-  <autoFilter ref="A1:D552" xr:uid="{5B0E3725-DD37-4555-ABF5-9B19FF19CCF6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D8C07B0E-445E-466A-BF84-C042A97AC876}" name="Table2" displayName="Table2" ref="A1:D554" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D554" xr:uid="{5B0E3725-DD37-4555-ABF5-9B19FF19CCF6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DB3AB8EC-6144-4175-9542-E11EAE994B7D}" name="Track" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{99042667-7839-4C2E-A05E-6A6791E43343}" name="Row Name" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{DC994CC6-197F-42A3-9133-D5543497B782}" name="Implemented?" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{32ECE2E3-CC84-4C8E-88EF-9C2ABF93C14D}" name="Comments" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{DB3AB8EC-6144-4175-9542-E11EAE994B7D}" name="Track" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{99042667-7839-4C2E-A05E-6A6791E43343}" name="Row Name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{DC994CC6-197F-42A3-9133-D5543497B782}" name="Implemented?" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{32ECE2E3-CC84-4C8E-88EF-9C2ABF93C14D}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -563,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E36DEE0-02F5-42C5-8925-E1554CFB8135}">
-  <dimension ref="A1:D552"/>
+  <dimension ref="A1:D554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,7 +636,9 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -648,7 +656,9 @@
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -694,7 +704,9 @@
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2308,7 +2320,9 @@
       <c r="A206" s="2">
         <v>205</v>
       </c>
-      <c r="B206" s="2"/>
+      <c r="B206" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
     </row>
@@ -2336,7 +2350,9 @@
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
+      <c r="D209" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
@@ -5142,16 +5158,24 @@
       <c r="A550" s="2">
         <v>549</v>
       </c>
-      <c r="B550" s="2"/>
-      <c r="C550" s="2"/>
+      <c r="B550" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C550" s="2">
+        <v>1</v>
+      </c>
       <c r="D550" s="2"/>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="2">
         <v>550</v>
       </c>
-      <c r="B551" s="2"/>
-      <c r="C551" s="2"/>
+      <c r="B551" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C551" s="2">
+        <v>1</v>
+      </c>
       <c r="D551" s="2"/>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
@@ -5161,6 +5185,22 @@
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A553" s="2">
+        <v>552</v>
+      </c>
+      <c r="B553" s="2"/>
+      <c r="C553" s="2"/>
+      <c r="D553" s="2"/>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554" s="2">
+        <v>553</v>
+      </c>
+      <c r="B554" s="2"/>
+      <c r="C554" s="2"/>
+      <c r="D554" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Audio/Russman/cues.xlsx
+++ b/Audio/Russman/cues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fifem\Documents\drg-mods\Audio\Russman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A17D57-1041-49F3-BA29-6258BA240999}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0EDF08-A8C9-4BE2-A4C5-CDE2139926D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="7428" xr2:uid="{F8A3E8D9-1FAC-42EC-8E85-BA0F2CBBD7A8}"/>
   </bookViews>
@@ -261,7 +261,21 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D8C07B0E-445E-466A-BF84-C042A97AC876}" name="Table2" displayName="Table2" ref="A1:D554" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D554" xr:uid="{5B0E3725-DD37-4555-ABF5-9B19FF19CCF6}"/>
+  <autoFilter ref="A1:D554" xr:uid="{5B0E3725-DD37-4555-ABF5-9B19FF19CCF6}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A9:D346">
+    <sortCondition ref="A1:A554"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DB3AB8EC-6144-4175-9542-E11EAE994B7D}" name="Track" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{99042667-7839-4C2E-A05E-6A6791E43343}" name="Row Name" dataDxfId="2"/>
@@ -572,7 +586,7 @@
   <dimension ref="A1:D554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9:C346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,19 +611,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -617,31 +629,27 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>345</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -649,33 +657,29 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>354</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>349</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -687,7 +691,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -699,17 +703,17 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -717,7 +721,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -727,15 +731,17 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -745,15 +751,17 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -761,7 +769,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -769,7 +777,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -777,7 +785,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -785,7 +793,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -793,7 +801,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -801,7 +809,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -809,7 +817,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -817,17 +825,17 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>351</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -835,7 +843,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -843,7 +851,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -851,7 +859,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -859,7 +867,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -867,7 +875,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -875,7 +883,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -883,7 +891,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -891,7 +899,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -899,7 +907,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -907,7 +915,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -915,7 +923,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -923,7 +931,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -931,7 +939,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -939,17 +947,17 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -957,7 +965,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -965,7 +973,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -973,7 +981,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -981,7 +989,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -989,7 +997,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -997,27 +1005,29 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>320</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1025,7 +1035,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1033,7 +1043,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1041,7 +1051,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1049,7 +1059,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1057,7 +1067,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1065,7 +1075,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1073,17 +1083,17 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1091,7 +1101,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1099,7 +1109,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1107,7 +1117,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1115,7 +1125,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1123,7 +1133,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1131,7 +1141,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1139,26 +1149,27 @@
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -1166,7 +1177,7 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -1174,7 +1185,7 @@
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -1182,7 +1193,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -1190,7 +1201,7 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -1198,7 +1209,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -1206,7 +1217,7 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -1214,7 +1225,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -1222,7 +1233,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -1230,7 +1241,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -1238,7 +1249,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -1246,7 +1257,7 @@
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -1254,27 +1265,27 @@
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -1282,7 +1293,7 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -1290,7 +1301,7 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -1298,7 +1309,7 @@
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -1306,7 +1317,7 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -1314,7 +1325,7 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -1322,7 +1333,7 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -1330,7 +1341,7 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -1338,7 +1349,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -1346,7 +1357,7 @@
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -1354,9 +1365,9 @@
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>22</v>
@@ -1364,9 +1375,9 @@
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>22</v>
@@ -1374,7 +1385,7 @@
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -1382,7 +1393,7 @@
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -1390,7 +1401,7 @@
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -1398,7 +1409,7 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -1406,7 +1417,7 @@
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -1414,7 +1425,7 @@
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -1424,45 +1435,53 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1</v>
+      </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1</v>
+      </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1</v>
+      </c>
       <c r="D100" s="2"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C101" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -1470,7 +1489,7 @@
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -1478,7 +1497,7 @@
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -1486,7 +1505,7 @@
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -1494,7 +1513,7 @@
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -1502,7 +1521,7 @@
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -1510,7 +1529,7 @@
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -1518,7 +1537,7 @@
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -1526,7 +1545,7 @@
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -1534,7 +1553,7 @@
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -1542,7 +1561,7 @@
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -1552,15 +1571,17 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C113" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1</v>
+      </c>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -1568,7 +1589,7 @@
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -1576,7 +1597,7 @@
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -1584,7 +1605,7 @@
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -1592,7 +1613,7 @@
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -1600,7 +1621,7 @@
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -1608,7 +1629,7 @@
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -1616,7 +1637,7 @@
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -1624,7 +1645,7 @@
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -1632,7 +1653,7 @@
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -1640,7 +1661,7 @@
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -1648,7 +1669,7 @@
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -1656,7 +1677,7 @@
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -1664,7 +1685,7 @@
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -1672,7 +1693,7 @@
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -1680,7 +1701,7 @@
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -1690,15 +1711,17 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C130" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C130" s="2">
+        <v>1</v>
+      </c>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -1706,7 +1729,7 @@
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -1716,15 +1739,17 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C133" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C133" s="2">
+        <v>1</v>
+      </c>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -1732,7 +1757,7 @@
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -1742,15 +1767,17 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C136" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="C136" s="2">
+        <v>1</v>
+      </c>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -1760,35 +1787,41 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C138" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1</v>
+      </c>
       <c r="D138" s="2"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C139" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C139" s="2">
+        <v>1</v>
+      </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C140" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C140" s="2">
+        <v>1</v>
+      </c>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -1796,7 +1829,7 @@
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -1804,7 +1837,7 @@
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -1812,7 +1845,7 @@
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -1820,7 +1853,7 @@
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -1828,7 +1861,7 @@
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -1836,7 +1869,7 @@
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -1844,7 +1877,7 @@
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -1852,7 +1885,7 @@
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -1862,45 +1895,49 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C150" s="2"/>
+      <c r="C150" s="2">
+        <v>1</v>
+      </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C151" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C151" s="2">
+        <v>1</v>
+      </c>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -1908,7 +1945,7 @@
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -1916,7 +1953,7 @@
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -1924,7 +1961,7 @@
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -1932,7 +1969,7 @@
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -1940,7 +1977,7 @@
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -1948,7 +1985,7 @@
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -1956,7 +1993,7 @@
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -1964,7 +2001,7 @@
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -1972,7 +2009,7 @@
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -1980,7 +2017,7 @@
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -1988,7 +2025,7 @@
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -1996,7 +2033,7 @@
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -2004,7 +2041,7 @@
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -2012,7 +2049,7 @@
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -2020,7 +2057,7 @@
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -2028,7 +2065,7 @@
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -2036,7 +2073,7 @@
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -2044,7 +2081,7 @@
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -2052,7 +2089,7 @@
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -2060,7 +2097,7 @@
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -2068,7 +2105,7 @@
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -2076,7 +2113,7 @@
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -2084,7 +2121,7 @@
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -2092,7 +2129,7 @@
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -2100,7 +2137,7 @@
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -2108,7 +2145,7 @@
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -2116,7 +2153,7 @@
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -2124,7 +2161,7 @@
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -2132,7 +2169,7 @@
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -2140,7 +2177,7 @@
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -2148,7 +2185,7 @@
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -2156,7 +2193,7 @@
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -2164,7 +2201,7 @@
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -2172,7 +2209,7 @@
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -2180,7 +2217,7 @@
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -2188,7 +2225,7 @@
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -2196,7 +2233,7 @@
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -2204,7 +2241,7 @@
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -2212,7 +2249,7 @@
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -2220,7 +2257,7 @@
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -2228,7 +2265,7 @@
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -2236,7 +2273,7 @@
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -2244,7 +2281,7 @@
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -2252,7 +2289,7 @@
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -2260,7 +2297,7 @@
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -2268,7 +2305,7 @@
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -2276,7 +2313,7 @@
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -2284,7 +2321,7 @@
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -2292,7 +2329,7 @@
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -2300,7 +2337,7 @@
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -2308,7 +2345,7 @@
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -2316,17 +2353,17 @@
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -2334,17 +2371,17 @@
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -2354,37 +2391,37 @@
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -2392,7 +2429,7 @@
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -2400,7 +2437,7 @@
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -2408,7 +2445,7 @@
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -2416,7 +2453,7 @@
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -2424,7 +2461,7 @@
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -2432,7 +2469,7 @@
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -2440,7 +2477,7 @@
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -2448,7 +2485,7 @@
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -2456,7 +2493,7 @@
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -2464,7 +2501,7 @@
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -2472,7 +2509,7 @@
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -2480,7 +2517,7 @@
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -2488,7 +2525,7 @@
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -2496,7 +2533,7 @@
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -2504,7 +2541,7 @@
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -2512,7 +2549,7 @@
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -2520,7 +2557,7 @@
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -2528,7 +2565,7 @@
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -2536,7 +2573,7 @@
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -2544,7 +2581,7 @@
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -2552,7 +2589,7 @@
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -2560,7 +2597,7 @@
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -2568,7 +2605,7 @@
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -2576,7 +2613,7 @@
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -2584,7 +2621,7 @@
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -2592,7 +2629,7 @@
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -2600,7 +2637,7 @@
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -2608,7 +2645,7 @@
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -2616,87 +2653,92 @@
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C243" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C243" s="2">
+        <v>1</v>
+      </c>
       <c r="D243" s="2"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
-        <v>245</v>
+        <v>63</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C248" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C248" s="2">
+        <v>1</v>
+      </c>
       <c r="D248" s="2"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C249" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C249" s="2">
+        <v>1</v>
+      </c>
       <c r="D249" s="2"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -2704,7 +2746,7 @@
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -2714,45 +2756,47 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C252" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C252" s="2">
+        <v>1</v>
+      </c>
       <c r="D252" s="2"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C253" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C253" s="2">
+        <v>1</v>
+      </c>
       <c r="D253" s="2"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
-        <v>253</v>
+        <v>359</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
-        <v>254</v>
+        <v>360</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -2760,7 +2804,7 @@
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -2768,7 +2812,7 @@
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -2776,7 +2820,7 @@
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -2784,7 +2828,7 @@
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -2792,7 +2836,7 @@
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -2800,7 +2844,7 @@
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -2808,7 +2852,7 @@
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -2816,7 +2860,7 @@
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -2824,7 +2868,7 @@
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -2832,7 +2876,7 @@
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -2840,7 +2884,7 @@
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -2848,7 +2892,7 @@
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -2856,7 +2900,7 @@
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -2864,7 +2908,7 @@
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -2872,7 +2916,7 @@
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -2880,7 +2924,7 @@
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -2888,7 +2932,7 @@
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -2896,7 +2940,7 @@
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -2904,7 +2948,7 @@
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -2912,7 +2956,7 @@
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -2920,7 +2964,7 @@
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -2930,15 +2974,17 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C278" s="2"/>
+      <c r="C278" s="2">
+        <v>1</v>
+      </c>
       <c r="D278" s="2"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -2946,7 +2992,7 @@
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -2956,15 +3002,17 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C281" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C281" s="2">
+        <v>1</v>
+      </c>
       <c r="D281" s="2"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -2972,7 +3020,7 @@
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -2980,7 +3028,7 @@
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -2988,7 +3036,7 @@
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -2996,7 +3044,7 @@
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -3004,7 +3052,7 @@
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -3012,7 +3060,7 @@
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -3020,7 +3068,7 @@
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -3030,35 +3078,41 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C290" s="2"/>
+      <c r="C290" s="2">
+        <v>1</v>
+      </c>
       <c r="D290" s="2"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C291" s="2"/>
+      <c r="C291" s="2">
+        <v>1</v>
+      </c>
       <c r="D291" s="2"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
-        <v>291</v>
+        <v>369</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C292" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C292" s="2">
+        <v>1</v>
+      </c>
       <c r="D292" s="2"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -3068,15 +3122,17 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
-        <v>293</v>
+        <v>370</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C294" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C294" s="2">
+        <v>1</v>
+      </c>
       <c r="D294" s="2"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -3084,7 +3140,7 @@
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -3092,7 +3148,7 @@
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -3100,7 +3156,7 @@
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -3108,7 +3164,7 @@
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -3116,7 +3172,7 @@
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -3124,7 +3180,7 @@
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -3132,7 +3188,7 @@
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -3140,7 +3196,7 @@
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -3148,7 +3204,7 @@
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -3156,7 +3212,7 @@
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -3164,7 +3220,7 @@
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -3172,7 +3228,7 @@
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -3180,7 +3236,7 @@
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -3188,7 +3244,7 @@
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -3196,7 +3252,7 @@
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -3204,7 +3260,7 @@
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -3212,7 +3268,7 @@
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -3220,7 +3276,7 @@
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -3228,7 +3284,7 @@
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -3236,7 +3292,7 @@
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -3244,7 +3300,7 @@
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -3252,7 +3308,7 @@
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -3260,7 +3316,7 @@
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -3268,7 +3324,7 @@
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -3276,7 +3332,7 @@
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -3286,15 +3342,17 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C321" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C321" s="2">
+        <v>1</v>
+      </c>
       <c r="D321" s="2"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -3302,7 +3360,7 @@
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -3310,7 +3368,7 @@
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -3318,7 +3376,7 @@
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -3326,7 +3384,7 @@
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -3334,7 +3392,7 @@
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -3342,7 +3400,7 @@
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -3350,7 +3408,7 @@
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -3358,7 +3416,7 @@
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -3366,7 +3424,7 @@
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -3374,7 +3432,7 @@
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -3382,7 +3440,7 @@
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -3392,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -3400,7 +3458,7 @@
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -3408,7 +3466,7 @@
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -3416,7 +3474,7 @@
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -3424,7 +3482,7 @@
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -3432,7 +3490,7 @@
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -3440,7 +3498,7 @@
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -3450,17 +3508,17 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
-        <v>340</v>
+        <v>549</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C341" s="2"/>
-      <c r="D341" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C341" s="2">
+        <v>1</v>
+      </c>
+      <c r="D341" s="2"/>
+    </row>
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -3468,7 +3526,7 @@
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -3476,7 +3534,7 @@
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -3484,7 +3542,7 @@
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -3494,15 +3552,17 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
-        <v>345</v>
+        <v>550</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C346" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C346" s="2">
+        <v>1</v>
+      </c>
       <c r="D346" s="2"/>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -3510,7 +3570,7 @@
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -3518,7 +3578,7 @@
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -3526,17 +3586,17 @@
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
-        <v>349</v>
+        <v>39</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -3544,17 +3604,17 @@
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
-        <v>351</v>
+        <v>241</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -3564,7 +3624,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -3572,17 +3632,17 @@
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
-        <v>354</v>
+        <v>242</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -3590,7 +3650,7 @@
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -3598,7 +3658,7 @@
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -3606,7 +3666,7 @@
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -3614,25 +3674,27 @@
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C360" s="2"/>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D360" s="2"/>
+    </row>
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C361" s="2"/>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D361" s="2"/>
+    </row>
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -3642,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -3652,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -3660,7 +3722,7 @@
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -3668,7 +3730,7 @@
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -3676,7 +3738,7 @@
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -3684,7 +3746,7 @@
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -3692,7 +3754,7 @@
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -3700,27 +3762,27 @@
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
-        <v>369</v>
+        <v>245</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
-        <v>370</v>
+        <v>246</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -3728,17 +3790,17 @@
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
-        <v>372</v>
+        <v>247</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -3746,7 +3808,7 @@
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -3756,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -3764,7 +3826,7 @@
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -3772,7 +3834,7 @@
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -3782,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -3790,7 +3852,7 @@
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -3800,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -3810,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -3818,7 +3880,7 @@
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -3826,7 +3888,7 @@
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -3834,7 +3896,7 @@
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -3842,7 +3904,7 @@
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -3850,7 +3912,7 @@
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -3858,7 +3920,7 @@
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -3866,7 +3928,7 @@
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -3874,7 +3936,7 @@
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -3882,7 +3944,7 @@
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -3890,7 +3952,7 @@
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -3898,7 +3960,7 @@
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -3906,7 +3968,7 @@
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -3914,7 +3976,7 @@
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -3922,7 +3984,7 @@
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -3930,7 +3992,7 @@
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -3938,7 +4000,7 @@
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -3946,7 +4008,7 @@
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -3954,7 +4016,7 @@
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -3962,7 +4024,7 @@
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -3970,7 +4032,7 @@
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -3978,7 +4040,7 @@
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -3986,7 +4048,7 @@
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -3994,7 +4056,7 @@
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -4002,7 +4064,7 @@
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -4010,7 +4072,7 @@
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -4018,7 +4080,7 @@
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -4026,7 +4088,7 @@
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -4034,7 +4096,7 @@
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -4042,7 +4104,7 @@
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -4050,7 +4112,7 @@
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -4058,7 +4120,7 @@
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -4066,7 +4128,7 @@
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -4074,7 +4136,7 @@
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -4082,7 +4144,7 @@
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -4090,7 +4152,7 @@
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -4098,7 +4160,7 @@
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -4106,7 +4168,7 @@
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -4114,7 +4176,7 @@
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -4122,7 +4184,7 @@
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -4130,7 +4192,7 @@
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -4138,7 +4200,7 @@
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -4146,7 +4208,7 @@
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -4154,7 +4216,7 @@
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -4162,7 +4224,7 @@
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -4170,7 +4232,7 @@
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -4178,7 +4240,7 @@
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -4186,7 +4248,7 @@
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -4194,7 +4256,7 @@
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -4202,7 +4264,7 @@
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -4210,7 +4272,7 @@
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -4218,7 +4280,7 @@
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -4226,7 +4288,7 @@
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -4234,7 +4296,7 @@
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -4242,7 +4304,7 @@
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -4250,7 +4312,7 @@
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -4258,7 +4320,7 @@
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -4266,7 +4328,7 @@
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -4274,7 +4336,7 @@
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -4282,7 +4344,7 @@
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -4290,7 +4352,7 @@
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -4298,7 +4360,7 @@
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -4306,7 +4368,7 @@
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -4314,7 +4376,7 @@
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -4322,7 +4384,7 @@
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -4330,7 +4392,7 @@
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -4338,7 +4400,7 @@
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -4346,7 +4408,7 @@
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -4354,7 +4416,7 @@
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -4362,7 +4424,7 @@
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -4370,7 +4432,7 @@
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -4378,7 +4440,7 @@
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -4386,7 +4448,7 @@
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -4394,7 +4456,7 @@
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -4402,7 +4464,7 @@
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -4410,7 +4472,7 @@
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -4418,7 +4480,7 @@
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -4426,7 +4488,7 @@
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -4434,7 +4496,7 @@
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -4442,7 +4504,7 @@
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -4450,7 +4512,7 @@
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -4458,7 +4520,7 @@
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -4466,7 +4528,7 @@
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -4474,7 +4536,7 @@
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -4482,7 +4544,7 @@
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -4490,7 +4552,7 @@
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -4498,7 +4560,7 @@
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -4506,7 +4568,7 @@
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -4514,7 +4576,7 @@
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -4522,7 +4584,7 @@
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -4530,7 +4592,7 @@
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -4538,7 +4600,7 @@
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -4546,7 +4608,7 @@
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -4554,7 +4616,7 @@
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -4562,7 +4624,7 @@
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -4570,7 +4632,7 @@
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -4578,7 +4640,7 @@
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -4586,7 +4648,7 @@
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -4594,7 +4656,7 @@
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -4602,7 +4664,7 @@
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -4610,7 +4672,7 @@
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -4618,7 +4680,7 @@
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -4626,7 +4688,7 @@
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -4634,7 +4696,7 @@
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -4642,7 +4704,7 @@
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -4650,7 +4712,7 @@
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -4658,7 +4720,7 @@
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -4666,7 +4728,7 @@
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -4674,7 +4736,7 @@
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -4682,7 +4744,7 @@
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -4690,7 +4752,7 @@
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="2">
         <v>491</v>
       </c>
@@ -4698,7 +4760,7 @@
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -4706,7 +4768,7 @@
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -4714,7 +4776,7 @@
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -4722,7 +4784,7 @@
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -4730,7 +4792,7 @@
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -4738,7 +4800,7 @@
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -4746,7 +4808,7 @@
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -4754,7 +4816,7 @@
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="2">
         <v>499</v>
       </c>
@@ -4762,7 +4824,7 @@
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -4770,7 +4832,7 @@
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -4778,7 +4840,7 @@
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -4786,7 +4848,7 @@
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -4794,7 +4856,7 @@
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -4802,7 +4864,7 @@
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="2">
         <v>505</v>
       </c>
@@ -4810,7 +4872,7 @@
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="2">
         <v>506</v>
       </c>
@@ -4818,7 +4880,7 @@
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -4826,7 +4888,7 @@
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="2">
         <v>508</v>
       </c>
@@ -4834,7 +4896,7 @@
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="2">
         <v>509</v>
       </c>
@@ -4842,7 +4904,7 @@
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -4850,7 +4912,7 @@
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -4858,7 +4920,7 @@
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -4866,7 +4928,7 @@
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -4874,7 +4936,7 @@
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -4882,7 +4944,7 @@
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -4890,7 +4952,7 @@
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -4898,7 +4960,7 @@
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -4906,7 +4968,7 @@
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -4914,7 +4976,7 @@
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -4922,7 +4984,7 @@
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -4930,7 +4992,7 @@
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -4938,7 +5000,7 @@
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -4946,7 +5008,7 @@
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -4954,7 +5016,7 @@
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -4962,7 +5024,7 @@
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -4970,7 +5032,7 @@
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -4978,7 +5040,7 @@
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -4986,7 +5048,7 @@
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -4994,7 +5056,7 @@
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -5002,7 +5064,7 @@
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -5010,7 +5072,7 @@
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -5018,7 +5080,7 @@
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -5026,7 +5088,7 @@
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="2">
         <v>533</v>
       </c>
@@ -5034,7 +5096,7 @@
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="2">
         <v>534</v>
       </c>
@@ -5042,7 +5104,7 @@
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="2">
         <v>535</v>
       </c>
@@ -5050,7 +5112,7 @@
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="2">
         <v>536</v>
       </c>
@@ -5058,7 +5120,7 @@
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="2">
         <v>537</v>
       </c>
@@ -5066,7 +5128,7 @@
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="2">
         <v>538</v>
       </c>
@@ -5074,7 +5136,7 @@
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="2">
         <v>539</v>
       </c>
@@ -5082,7 +5144,7 @@
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="2">
         <v>540</v>
       </c>
@@ -5090,7 +5152,7 @@
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="2">
         <v>541</v>
       </c>
@@ -5098,7 +5160,7 @@
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="2">
         <v>542</v>
       </c>
@@ -5106,7 +5168,7 @@
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="2">
         <v>543</v>
       </c>
@@ -5114,7 +5176,7 @@
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="2">
         <v>544</v>
       </c>
@@ -5122,7 +5184,7 @@
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="2">
         <v>545</v>
       </c>
@@ -5130,7 +5192,7 @@
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="2">
         <v>546</v>
       </c>
@@ -5138,7 +5200,7 @@
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="2">
         <v>547</v>
       </c>
@@ -5146,7 +5208,7 @@
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="2">
         <v>548</v>
       </c>
@@ -5154,31 +5216,27 @@
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="2">
-        <v>549</v>
+        <v>248</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C550" s="2">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C550" s="2"/>
       <c r="D550" s="2"/>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="2">
-        <v>550</v>
+        <v>47</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C551" s="2">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C551" s="2"/>
       <c r="D551" s="2"/>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="2">
         <v>551</v>
       </c>
@@ -5186,7 +5244,7 @@
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="2">
         <v>552</v>
       </c>
@@ -5194,7 +5252,7 @@
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="2">
         <v>553</v>
       </c>

--- a/Audio/Russman/cues.xlsx
+++ b/Audio/Russman/cues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fifem\Documents\drg-mods\Audio\Russman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0EDF08-A8C9-4BE2-A4C5-CDE2139926D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC4808B-5753-4C33-8CF4-D8F999D24F59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="7428" xr2:uid="{F8A3E8D9-1FAC-42EC-8E85-BA0F2CBBD7A8}"/>
   </bookViews>
@@ -274,7 +274,7 @@
     </filterColumn>
   </autoFilter>
   <sortState ref="A9:D346">
-    <sortCondition ref="A1:A554"/>
+    <sortCondition ref="B1:B554"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DB3AB8EC-6144-4175-9542-E11EAE994B7D}" name="Track" dataDxfId="3"/>
@@ -586,7 +586,7 @@
   <dimension ref="A1:D554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C346"/>
+      <selection activeCell="C294" sqref="C294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +679,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -691,10 +691,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -703,10 +703,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>290</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -731,10 +731,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>6</v>
+        <v>291</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -751,10 +751,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>7</v>
+        <v>293</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1435,10 +1435,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C98" s="2">
         <v>1</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C99" s="2">
         <v>1</v>
@@ -1459,10 +1459,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C100" s="2">
         <v>1</v>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C101" s="2">
         <v>1</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>46</v>
+        <v>369</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C113" s="2">
         <v>1</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C130" s="2">
         <v>1</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C133" s="2">
         <v>1</v>
@@ -1767,10 +1767,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C136" s="2">
         <v>1</v>
@@ -1787,10 +1787,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C138" s="2">
         <v>1</v>
@@ -1799,10 +1799,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C139" s="2">
         <v>1</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C140" s="2">
         <v>1</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>152</v>
+        <v>370</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C150" s="2">
         <v>1</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>205</v>
+        <v>372</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>13</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
-        <v>207</v>
+        <v>4</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C243" s="2">
         <v>1</v>
@@ -2716,10 +2716,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C248" s="2">
         <v>1</v>
@@ -2728,10 +2728,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C249" s="2">
         <v>1</v>
@@ -2756,10 +2756,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C252" s="2">
         <v>1</v>
@@ -2768,10 +2768,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C253" s="2">
         <v>1</v>
@@ -2974,10 +2974,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
-        <v>289</v>
+        <v>549</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C278" s="2">
         <v>1</v>
@@ -3002,10 +3002,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C281" s="2">
         <v>1</v>
@@ -3078,10 +3078,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
-        <v>291</v>
+        <v>6</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C290" s="2">
         <v>1</v>
@@ -3090,10 +3090,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
-        <v>293</v>
+        <v>1</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C291" s="2">
         <v>1</v>
@@ -3102,10 +3102,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
-        <v>369</v>
+        <v>3</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C292" s="2">
         <v>1</v>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
-        <v>370</v>
+        <v>7</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C294" s="2">
         <v>1</v>
@@ -3342,10 +3342,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
-        <v>372</v>
+        <v>8</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C321" s="2">
         <v>1</v>
@@ -3508,10 +3508,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
-        <v>549</v>
+        <v>9</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C341" s="2">
         <v>1</v>
@@ -3552,10 +3552,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
-        <v>550</v>
+        <v>10</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C346" s="2">
         <v>1</v>
